--- a/gse39582_n469_clinical_data.xlsx
+++ b/gse39582_n469_clinical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM472"/>
+  <dimension ref="A1:AM474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67872,10 +67872,8 @@
       <c r="I472" t="n">
         <v>20</v>
       </c>
-      <c r="J472" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="J472" t="n">
+        <v>2</v>
       </c>
       <c r="K472" t="inlineStr"/>
       <c r="L472" t="inlineStr"/>
@@ -67929,6 +67927,150 @@
       </c>
       <c r="AM472" t="inlineStr"/>
     </row>
+    <row r="473">
+      <c r="A473" t="inlineStr"/>
+      <c r="B473" t="inlineStr"/>
+      <c r="C473" t="inlineStr"/>
+      <c r="D473" t="inlineStr"/>
+      <c r="E473" t="inlineStr"/>
+      <c r="F473" t="inlineStr"/>
+      <c r="G473" t="inlineStr"/>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I473" t="n">
+        <v>30</v>
+      </c>
+      <c r="J473" t="n">
+        <v>2</v>
+      </c>
+      <c r="K473" t="inlineStr"/>
+      <c r="L473" t="inlineStr"/>
+      <c r="M473" t="inlineStr"/>
+      <c r="N473" t="inlineStr"/>
+      <c r="O473" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P473" t="inlineStr">
+        <is>
+          <t>5FU</t>
+        </is>
+      </c>
+      <c r="Q473" t="n">
+        <v>1</v>
+      </c>
+      <c r="R473" t="n">
+        <v>10</v>
+      </c>
+      <c r="S473" t="inlineStr"/>
+      <c r="T473" t="n">
+        <v>20</v>
+      </c>
+      <c r="U473" t="inlineStr"/>
+      <c r="V473" t="inlineStr"/>
+      <c r="W473" t="inlineStr"/>
+      <c r="X473" t="inlineStr"/>
+      <c r="Y473" t="inlineStr"/>
+      <c r="Z473" t="inlineStr"/>
+      <c r="AA473" t="inlineStr"/>
+      <c r="AB473" t="inlineStr"/>
+      <c r="AC473" t="inlineStr"/>
+      <c r="AD473" t="inlineStr"/>
+      <c r="AE473" t="inlineStr"/>
+      <c r="AF473" t="inlineStr"/>
+      <c r="AG473" t="inlineStr"/>
+      <c r="AH473" t="inlineStr"/>
+      <c r="AI473" t="inlineStr"/>
+      <c r="AJ473" t="inlineStr"/>
+      <c r="AK473" t="inlineStr">
+        <is>
+          <t>CMS1</t>
+        </is>
+      </c>
+      <c r="AL473" t="inlineStr">
+        <is>
+          <t>PDS1</t>
+        </is>
+      </c>
+      <c r="AM473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr"/>
+      <c r="B474" t="inlineStr"/>
+      <c r="C474" t="inlineStr"/>
+      <c r="D474" t="inlineStr"/>
+      <c r="E474" t="inlineStr"/>
+      <c r="F474" t="inlineStr"/>
+      <c r="G474" t="inlineStr"/>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I474" t="n">
+        <v>30</v>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K474" t="inlineStr"/>
+      <c r="L474" t="inlineStr"/>
+      <c r="M474" t="inlineStr"/>
+      <c r="N474" t="inlineStr"/>
+      <c r="O474" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P474" t="inlineStr">
+        <is>
+          <t>5FU</t>
+        </is>
+      </c>
+      <c r="Q474" t="n">
+        <v>1</v>
+      </c>
+      <c r="R474" t="n">
+        <v>10</v>
+      </c>
+      <c r="S474" t="inlineStr"/>
+      <c r="T474" t="n">
+        <v>20</v>
+      </c>
+      <c r="U474" t="inlineStr"/>
+      <c r="V474" t="inlineStr"/>
+      <c r="W474" t="inlineStr"/>
+      <c r="X474" t="inlineStr"/>
+      <c r="Y474" t="inlineStr"/>
+      <c r="Z474" t="inlineStr"/>
+      <c r="AA474" t="inlineStr"/>
+      <c r="AB474" t="inlineStr"/>
+      <c r="AC474" t="inlineStr"/>
+      <c r="AD474" t="inlineStr"/>
+      <c r="AE474" t="inlineStr"/>
+      <c r="AF474" t="inlineStr"/>
+      <c r="AG474" t="inlineStr"/>
+      <c r="AH474" t="inlineStr"/>
+      <c r="AI474" t="inlineStr"/>
+      <c r="AJ474" t="inlineStr"/>
+      <c r="AK474" t="inlineStr">
+        <is>
+          <t>CMS1</t>
+        </is>
+      </c>
+      <c r="AL474" t="inlineStr">
+        <is>
+          <t>PDS1</t>
+        </is>
+      </c>
+      <c r="AM474" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
